--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\OneDrive\My com\Rang Dong _Product\bc\Template xuất excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578D5CA-B7F4-4D5A-9F61-4D73DB3EC32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Tên cửa hàng</t>
   </si>
   <si>
-    <t>{Đơn vị quản lý}</t>
-  </si>
-  <si>
     <t>BÁO CÁO BÁN HÀNG THEO CỬA HÀNG VÀ SẢN PHẨM</t>
   </si>
   <si>
@@ -74,32 +72,80 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>Đơn vị quản lý 1</t>
-  </si>
-  <si>
-    <t>Đơn vị quản lý 2</t>
-  </si>
-  <si>
     <t>Từ ngày</t>
   </si>
   <si>
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>{ngày bắt đầu}</t>
-  </si>
-  <si>
-    <t>{ngày kết thúc}</t>
-  </si>
-  <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
+  </si>
+  <si>
+    <t>{{Start}}</t>
+  </si>
+  <si>
+    <t>{{End}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.Code}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.Name}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.UnitOfMeasureName}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.SaleStock}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.PromotionStock}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.SalePriceAverage}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.Discount}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.Revenue}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.IndirectSalesOrderCounter}}</t>
+  </si>
+  <si>
+    <t>{{Total.TotalSalesStock}}</t>
+  </si>
+  <si>
+    <t>{{Total.TotalPromotionStock}}</t>
+  </si>
+  <si>
+    <t>{{Total.TotalDiscount}}</t>
+  </si>
+  <si>
+    <t>{{Total.TotalRevenue}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.STT}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Code}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Name}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Address}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +181,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -214,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -226,13 +279,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -241,6 +295,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,306 +587,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+    <row r="4" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A4:M4"/>
+  <mergeCells count="13">
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578D5CA-B7F4-4D5A-9F61-4D73DB3EC32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C0850E-38E8-49E2-9C15-41BB13CBD3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,18 +30,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Mã cửa hàng</t>
-  </si>
-  <si>
-    <t>Tên cửa hàng</t>
-  </si>
-  <si>
-    <t>BÁO CÁO BÁN HÀNG THEO CỬA HÀNG VÀ SẢN PHẨM</t>
-  </si>
-  <si>
-    <t>Địa chỉ cửa hàng</t>
-  </si>
-  <si>
     <t>Mã sản phẩm</t>
   </si>
   <si>
@@ -139,6 +127,18 @@
   </si>
   <si>
     <t>{{ReportSalesOrderByStoreAndItems.Stores.Address}}</t>
+  </si>
+  <si>
+    <t>Mã đại lý</t>
+  </si>
+  <si>
+    <t>Tên đại lý</t>
+  </si>
+  <si>
+    <t>Địa chỉ đại lý</t>
+  </si>
+  <si>
+    <t>BÁO CÁO BÁN HÀNG THEO ĐẠI LÝ VÀ SẢN PHẨM</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -640,7 +640,7 @@
     </row>
     <row r="4" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -665,16 +665,16 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -685,48 +685,48 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="14" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="14" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -750,52 +750,52 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -808,17 +808,17 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="5"/>
     </row>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C0850E-38E8-49E2-9C15-41BB13CBD3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2F222-DF39-47C5-A7C6-FF753FB70606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,6 +314,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -807,17 +814,17 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="18" t="s">
         <v>27</v>
       </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="5"/>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2F222-DF39-47C5-A7C6-FF753FB70606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC57B9E-840B-49F3-AA07-82B104B55A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,6 +189,7 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -275,46 +276,60 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,237 +612,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="5.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="4" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:20" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="18" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC57B9E-840B-49F3-AA07-82B104B55A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB55C92-3B1C-4830-9A76-12BA254CD6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,53 +282,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,114 +619,114 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15" style="6" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="2" width="5.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
@@ -774,78 +780,78 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="69" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="18" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="18" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB55C92-3B1C-4830-9A76-12BA254CD6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE74B4F-5494-486C-A02B-F15296FCE839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -294,6 +294,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -324,17 +327,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,78 +616,78 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="5.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="14" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="3"/>
+    <col min="17" max="17" width="15.85546875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
-    <row r="4" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -710,23 +707,23 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
@@ -755,100 +752,100 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
     </row>
-    <row r="9" spans="1:20" ht="69" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="17" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="6"/>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE74B4F-5494-486C-A02B-F15296FCE839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6678042-CA56-49AC-AA60-E593308C3FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.Revenue}}</t>
   </si>
   <si>
-    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.IndirectSalesOrderCounter}}</t>
-  </si>
-  <si>
     <t>{{Total.TotalSalesStock}}</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>BÁO CÁO BÁN HÀNG THEO ĐẠI LÝ VÀ SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.SalesOrderCounter}}</t>
   </si>
 </sst>
 </file>
@@ -297,6 +297,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -326,12 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,51 +641,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="A4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -708,22 +708,22 @@
       <c r="N5" s="4"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
@@ -753,46 +753,46 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
@@ -802,51 +802,51 @@
       <c r="K9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="18" t="s">
-        <v>25</v>
+      <c r="Q9" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="19" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="19" t="s">
+      <c r="P10" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="Q10" s="6"/>
     </row>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6678042-CA56-49AC-AA60-E593308C3FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9620129-8B80-4A0F-A8BD-DC31A135EEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.SalesOrderCounter}}</t>
+  </si>
+  <si>
+    <t>Trạng thái đại lý</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.StoreStatusName}}</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,21 +632,23 @@
     <col min="4" max="4" width="6.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="7.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -653,8 +661,10 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -665,8 +675,10 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
-    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -686,28 +698,30 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
@@ -721,38 +735,42 @@
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -774,9 +792,11 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
@@ -790,38 +810,42 @@
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="Q9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="R9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="S9" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -835,36 +859,40 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A8:T8"/>
+  <mergeCells count="15">
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A8:V8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9620129-8B80-4A0F-A8BD-DC31A135EEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A78F6-B043-4BA7-81DC-7765E4B67BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -126,9 +126,6 @@
     <t>{{ReportSalesOrderByStoreAndItems.Stores.Address}}</t>
   </si>
   <si>
-    <t>Mã đại lý</t>
-  </si>
-  <si>
     <t>Tên đại lý</t>
   </si>
   <si>
@@ -145,6 +142,15 @@
   </si>
   <si>
     <t>{{ReportSalesOrderByStoreAndItems.Stores.StoreStatusName}}</t>
+  </si>
+  <si>
+    <t>Mã đại lý (tự sinh)</t>
+  </si>
+  <si>
+    <t>Mã đại lý (tự nhập)</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.CodeDraft}}</t>
   </si>
 </sst>
 </file>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,25 +636,27 @@
     <col min="1" max="2" width="5.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="15" style="3" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -663,8 +671,10 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -677,10 +687,12 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
-    <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -700,77 +712,85 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
     </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -794,9 +814,11 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
-      <c r="V8" s="15"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
@@ -806,46 +828,50 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="19"/>
+      <c r="M9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="Q9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="R9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="S9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="T9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>37</v>
+      <c r="U9" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -861,38 +887,42 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="6"/>
+      <c r="S10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A8:V8"/>
+  <mergeCells count="17">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:U4"/>
+    <mergeCell ref="A8:X8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A78F6-B043-4BA7-81DC-7765E4B67BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B3486E-B30B-42D7-8ABD-9FD72D422A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Trạng thái đại lý</t>
   </si>
   <si>
-    <t>{{ReportSalesOrderByStoreAndItems.Stores.StoreStatusName}}</t>
-  </si>
-  <si>
     <t>Mã đại lý (tự sinh)</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>{{ReportSalesOrderByStoreAndItems.Stores.CodeDraft}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByStoreAndItems.Stores.StoreStatus.Name}}</t>
   </si>
 </sst>
 </file>
@@ -315,6 +315,12 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -338,12 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +628,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,63 +657,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -738,30 +738,30 @@
       <c r="R5" s="4"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,58 +791,58 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="17"/>
     </row>
     <row r="9" spans="1:24" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="18" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="7" t="s">
         <v>17</v>
       </c>
@@ -872,23 +872,23 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="9" t="s">
         <v>25</v>
       </c>
@@ -906,6 +906,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A10:O10"/>
     <mergeCell ref="A1:N1"/>
@@ -922,7 +923,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B3486E-B30B-42D7-8ABD-9FD72D422A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B9ED9F-FCA8-437E-B638-EC6B3226D0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>Địa chỉ đại lý</t>
   </si>
   <si>
-    <t>BÁO CÁO BÁN HÀNG THEO ĐẠI LÝ VÀ SẢN PHẨM</t>
-  </si>
-  <si>
     <t>{{ReportSalesOrderByStoreAndItems.Stores.Items.SalesOrderCounter}}</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>{{ReportSalesOrderByStoreAndItems.Stores.StoreStatus.Name}}</t>
+  </si>
+  <si>
+    <t>BÁO CÁO BÁN HÀNG THEO ĐẠI LÝ VÀ SẢN PHẨM GIÁN TIẾP</t>
   </si>
 </sst>
 </file>
@@ -315,6 +315,12 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -338,12 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +628,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A4" sqref="A4:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,63 +657,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
+      <c r="A4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -738,30 +738,30 @@
       <c r="R5" s="4"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,58 +791,58 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="19"/>
     </row>
     <row r="9" spans="1:24" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="7" t="s">
         <v>17</v>
       </c>
@@ -868,27 +868,27 @@
         <v>24</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="9" t="s">
         <v>25</v>
       </c>
@@ -906,6 +906,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A10:O10"/>
@@ -922,7 +923,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Store_And_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B9ED9F-FCA8-437E-B638-EC6B3226D0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCD16D2-279C-4C31-98FA-112579F89FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
     <t>{{ReportSalesOrderByStoreAndItems.Stores.StoreStatus.Name}}</t>
   </si>
   <si>
-    <t>BÁO CÁO BÁN HÀNG THEO ĐẠI LÝ VÀ SẢN PHẨM GIÁN TIẾP</t>
+    <t>BÁO CÁO BÁN HÀNG GIÁN TIẾP THEO ĐẠI LÝ VÀ SẢN PHẨM</t>
   </si>
 </sst>
 </file>
@@ -906,6 +906,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
@@ -922,7 +923,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
